--- a/biology/Botanique/Monalisa_(pomme_de_terre)/Monalisa_(pomme_de_terre).xlsx
+++ b/biology/Botanique/Monalisa_(pomme_de_terre)/Monalisa_(pomme_de_terre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Monalisa est une variété de pomme de terre  néerlandaise créée par les semenciers Van der Zee &amp; Zonen (actuellement HZPC Holland BV) . Elle est inscrite au catalogue officiel français depuis 1982[1] ainsi qu'au catalogue européen et aux catalogues espagnol, néerlandais et tchèque.
+La Monalisa est une variété de pomme de terre  néerlandaise créée par les semenciers Van der Zee &amp; Zonen (actuellement HZPC Holland BV) . Elle est inscrite au catalogue officiel français depuis 1982 ainsi qu'au catalogue européen et aux catalogues espagnol, néerlandais et tchèque.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tubercules, de taille assez grosse, ont une forme oblongue régulière, aux yeux très superficiels, à chair jaune et à peau lisse de couleur jaune pâle. Le taux de matière sèche est moyen (19,4 %)[2]. La plante est résistante à la galle verruqueuse et au virus A, assez sensible à la gale commune et moyennement sensible au mildiou. Son rendement est moyen à élevé.
-Sur le plan culinaire elle est classée dans le groupe B-A[3]. C'est une pomme de terre à chair ferme, se délitant peu à la cuisson, adaptée pour les salades, les pommes vapeur ou en robe des champs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tubercules, de taille assez grosse, ont une forme oblongue régulière, aux yeux très superficiels, à chair jaune et à peau lisse de couleur jaune pâle. Le taux de matière sèche est moyen (19,4 %). La plante est résistante à la galle verruqueuse et au virus A, assez sensible à la gale commune et moyennement sensible au mildiou. Son rendement est moyen à élevé.
+Sur le plan culinaire elle est classée dans le groupe B-A. C'est une pomme de terre à chair ferme, se délitant peu à la cuisson, adaptée pour les salades, les pommes vapeur ou en robe des champs.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la variété, 'Monalisa' a été choisi pour des raisons de marketing. Le sélectionneur qui a repéré cette variété, un certain Van der Zee qui travaillait pour le compte de ZPC aux Pays-Bas, aurait voulu lui donner le prénom de sa fille, Lisa (un peu comme l'avait fait le « père » de la 'Bintje' que la nouvelle variété était destinée à remplacer), mais le responsable de ZPC, Arie Westmaas, a préféré 'Monalisa', sans doute considéré comme plus vendeur[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la variété, 'Monalisa' a été choisi pour des raisons de marketing. Le sélectionneur qui a repéré cette variété, un certain Van der Zee qui travaillait pour le compte de ZPC aux Pays-Bas, aurait voulu lui donner le prénom de sa fille, Lisa (un peu comme l'avait fait le « père » de la 'Bintje' que la nouvelle variété était destinée à remplacer), mais le responsable de ZPC, Arie Westmaas, a préféré 'Monalisa', sans doute considéré comme plus vendeur.
 </t>
         </is>
       </c>
